--- a/siamese_dataset.xlsx
+++ b/siamese_dataset.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7cc9db896fc77886d4382ee98cc217db</t>
+          <t>9ada1c93f3ed500fcdcee67415efe684</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -653,7 +653,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7cc9db896fc77886d4382ee98cc217db</t>
+          <t>9ada1c93f3ed500fcdcee67415efe684</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -678,7 +678,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9ada1c93f3ed500fcdcee67415efe684</t>
+          <t>7cc9db896fc77886d4382ee98cc217db</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -703,7 +703,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9ada1c93f3ed500fcdcee67415efe684</t>
+          <t>7cc9db896fc77886d4382ee98cc217db</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>fio3.sh</t>
+          <t>fio7.sh</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>f995d8a0bc8d1f2528220691f5156c37</t>
+          <t>93d3ec88c2682a6b17d0a0b845c0b772</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio5.sh</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8b6cdaead094050e6c5bec39a2c29434</t>
+          <t>9040171748b12ce1ef6a8536ac982b3e</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>fio18.sh</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>b20f9a75f2e09ef6c984ef187e8baab9</t>
+          <t>1c7690a17a6b37945712b4ec2bbbc6c5</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio19.sh</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>c3f3635af167d80fe12262fe0e8f1ab6</t>
+          <t>6cd51cf58b2e1a46d0a3506cd2a1c3a6</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>fio7.sh</t>
+          <t>fio9.sh</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>93d3ec88c2682a6b17d0a0b845c0b772</t>
+          <t>61183c5e98db4661b70386d3bfc25ad1</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>fio11.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>25b3121cf84a93856e184bcc18ed2285</t>
+          <t>c3f3635af167d80fe12262fe0e8f1ab6</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>fio6.sh</t>
+          <t>fio8.sh</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>6376420d566d841ce003e14021f5c792</t>
+          <t>d436cb0e1a476937a5a1957ea19a530a</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>fio14.sh</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1c7690a17a6b37945712b4ec2bbbc6c5</t>
+          <t>176597135e3969061f6b08fed355bdd9</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>fio15.sh</t>
+          <t>fio3.sh</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4b6e2f7f45e5197fc43ceae424afb9b7</t>
+          <t>f995d8a0bc8d1f2528220691f5156c37</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>fio6.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6376420d566d841ce003e14021f5c792</t>
+          <t>8b6cdaead094050e6c5bec39a2c29434</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>fio13.sh</t>
+          <t>fio16.sh</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>15e4d4c0a701b8af2af5554f2ba7bbf6</t>
+          <t>2ece8d7f665f672a7796fcd56e0f9fb6</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>fio3.sh</t>
+          <t>fio6.sh</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>f995d8a0bc8d1f2528220691f5156c37</t>
+          <t>6376420d566d841ce003e14021f5c792</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>fio19.sh</t>
+          <t>fio2.sh</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6cd51cf58b2e1a46d0a3506cd2a1c3a6</t>
+          <t>512b9068b4cd702237ab8242caceab38</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>fio7.sh</t>
+          <t>fio5.sh</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>93d3ec88c2682a6b17d0a0b845c0b772</t>
+          <t>9040171748b12ce1ef6a8536ac982b3e</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>fio8.sh</t>
+          <t>fio3.sh</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>d436cb0e1a476937a5a1957ea19a530a</t>
+          <t>f995d8a0bc8d1f2528220691f5156c37</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>fio4.sh</t>
+          <t>fio9.sh</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>fcc11badd30b5102a26311a41b951a3c</t>
+          <t>61183c5e98db4661b70386d3bfc25ad1</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>fio14.sh</t>
+          <t>fio4.sh</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>176597135e3969061f6b08fed355bdd9</t>
+          <t>fcc11badd30b5102a26311a41b951a3c</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>fio9.sh</t>
+          <t>fio4.sh</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>61183c5e98db4661b70386d3bfc25ad1</t>
+          <t>fcc11badd30b5102a26311a41b951a3c</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>fio5.sh</t>
+          <t>fio6.sh</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>9040171748b12ce1ef6a8536ac982b3e</t>
+          <t>6376420d566d841ce003e14021f5c792</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>fio8.sh</t>
+          <t>fio11.sh</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>d436cb0e1a476937a5a1957ea19a530a</t>
+          <t>25b3121cf84a93856e184bcc18ed2285</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>fio4.sh</t>
+          <t>fio15.sh</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>fcc11badd30b5102a26311a41b951a3c</t>
+          <t>4b6e2f7f45e5197fc43ceae424afb9b7</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>fio17.sh</t>
+          <t>fio7.sh</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>cc3ad5171264d803383a49ba77d6fd7b</t>
+          <t>93d3ec88c2682a6b17d0a0b845c0b772</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>fio16.sh</t>
+          <t>fio17.sh</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2ece8d7f665f672a7796fcd56e0f9fb6</t>
+          <t>cc3ad5171264d803383a49ba77d6fd7b</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>fio5.sh</t>
+          <t>fio18.sh</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>9040171748b12ce1ef6a8536ac982b3e</t>
+          <t>b20f9a75f2e09ef6c984ef187e8baab9</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>fio2.sh</t>
+          <t>fio8.sh</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>512b9068b4cd702237ab8242caceab38</t>
+          <t>d436cb0e1a476937a5a1957ea19a530a</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>fio9.sh</t>
+          <t>fio13.sh</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>61183c5e98db4661b70386d3bfc25ad1</t>
+          <t>15e4d4c0a701b8af2af5554f2ba7bbf6</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>fio16.sh</t>
+          <t>fio14.sh</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>172fa5348233549194189081d49f9f6d</t>
+          <t>45bac4192c61cfeba14a64386a4b6e65</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>fio19.sh</t>
+          <t>fio11.sh</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>15f9d8fcfcd6ec32a51ab99a9e64f19e</t>
+          <t>e22aa548fea442a35b145881113905b5</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio11.sh</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>d3184ae79e15874650c264c7fc201803</t>
+          <t>e22aa548fea442a35b145881113905b5</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>fio11.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>e22aa548fea442a35b145881113905b5</t>
+          <t>d3184ae79e15874650c264c7fc201803</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>fio17.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5017eef8adf42f9837bbd372d66e547d</t>
+          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>fio16.sh</t>
+          <t>fio17.sh</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>172fa5348233549194189081d49f9f6d</t>
+          <t>5017eef8adf42f9837bbd372d66e547d</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>fio13.sh</t>
+          <t>fio19.sh</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>020e043234bba88e36b5941af15254d5</t>
+          <t>15f9d8fcfcd6ec32a51ab99a9e64f19e</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
+          <t>d3184ae79e15874650c264c7fc201803</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>fio11.sh</t>
+          <t>fio15.sh</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>e22aa548fea442a35b145881113905b5</t>
+          <t>0e7fefd4bf12e3b10921488a1733c871</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio16.sh</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
+          <t>172fa5348233549194189081d49f9f6d</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>fio18.sh</t>
+          <t>fio13.sh</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2709ab002720bf259dfd7f79bf2a2677</t>
+          <t>020e043234bba88e36b5941af15254d5</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>fio14.sh</t>
+          <t>fio13.sh</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>45bac4192c61cfeba14a64386a4b6e65</t>
+          <t>020e043234bba88e36b5941af15254d5</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>fio19.sh</t>
+          <t>fio16.sh</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>15f9d8fcfcd6ec32a51ab99a9e64f19e</t>
+          <t>172fa5348233549194189081d49f9f6d</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>fio14.sh</t>
+          <t>fio15.sh</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>45bac4192c61cfeba14a64386a4b6e65</t>
+          <t>0e7fefd4bf12e3b10921488a1733c871</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>fio15.sh</t>
+          <t>fio19.sh</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0e7fefd4bf12e3b10921488a1733c871</t>
+          <t>15f9d8fcfcd6ec32a51ab99a9e64f19e</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>fio15.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0e7fefd4bf12e3b10921488a1733c871</t>
+          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio14.sh</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
+          <t>45bac4192c61cfeba14a64386a4b6e65</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>fio13.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>020e043234bba88e36b5941af15254d5</t>
+          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio18.sh</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>d3184ae79e15874650c264c7fc201803</t>
+          <t>2709ab002720bf259dfd7f79bf2a2677</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio24.sh</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
+          <t>9889b12792dc5156d8b0bea1b6a9cc63</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>d3184ae79e15874650c264c7fc201803</t>
+          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>fio23.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>de9caef7e5395d10cc8e56ee6c4e6d96</t>
+          <t>d3184ae79e15874650c264c7fc201803</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio23.sh</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
+          <t>de9caef7e5395d10cc8e56ee6c4e6d96</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>d3184ae79e15874650c264c7fc201803</t>
+          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
+          <t>d3184ae79e15874650c264c7fc201803</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>fio24.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>9889b12792dc5156d8b0bea1b6a9cc63</t>
+          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>run14.txt</t>
+          <t>run6.txt</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>run11.txt</t>
+          <t>run4.txt</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>run22.txt</t>
+          <t>run18.txt</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>run15.txt</t>
+          <t>run20.txt</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>run24.txt</t>
+          <t>run13.txt</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>run19.txt</t>
+          <t>run10.txt</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>run20.txt</t>
+          <t>run24.txt</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>run18.txt</t>
+          <t>run5.txt</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>run3.txt</t>
+          <t>run7.txt</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>run5.txt</t>
+          <t>run17.txt</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>run10.txt</t>
+          <t>run14.txt</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>run6.txt</t>
+          <t>run11.txt</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>run8.txt</t>
+          <t>run9.txt</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>run21.txt</t>
+          <t>run15.txt</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>run9.txt</t>
+          <t>run21.txt</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>run13.txt</t>
+          <t>run16.txt</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>run17.txt</t>
+          <t>run3.txt</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>run2.txt</t>
+          <t>run8.txt</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>run23.txt</t>
+          <t>run22.txt</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>run7.txt</t>
+          <t>run23.txt</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>run16.txt</t>
+          <t>run2.txt</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>run4.txt</t>
+          <t>run19.txt</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>fio8.sh</t>
+          <t>fio2.sh</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>dfb54edb90b4bd9b8fa4639e4b5febac</t>
+          <t>a9c3f3a6695473efa3ac9ca0aebbc7c3</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>fio7.sh</t>
+          <t>fio8.sh</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>3f76f3281ca6305ec5cfa3a9cf6df604</t>
+          <t>dfb54edb90b4bd9b8fa4639e4b5febac</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>fio3.sh</t>
+          <t>fio9.sh</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>45dc52ce0532fcc24f1bd96c20eefb61</t>
+          <t>cf67dde32a7d8037a9c0d7d7a1b5a2d4</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>fio4.sh</t>
+          <t>fio5.sh</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>a18d6c42c15ea60ef5ccf1b000710f05</t>
+          <t>aac67e1efcdac4986141aff5bc5597dc</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>fio5.sh</t>
+          <t>fio7.sh</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>aac67e1efcdac4986141aff5bc5597dc</t>
+          <t>3f76f3281ca6305ec5cfa3a9cf6df604</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>fio2.sh</t>
+          <t>fio4.sh</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>a9c3f3a6695473efa3ac9ca0aebbc7c3</t>
+          <t>a18d6c42c15ea60ef5ccf1b000710f05</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>fio9.sh</t>
+          <t>fio3.sh</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>cf67dde32a7d8037a9c0d7d7a1b5a2d4</t>
+          <t>45dc52ce0532fcc24f1bd96c20eefb61</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1a4c333360c85f36c39cfa4bd8c20d4b</t>
+          <t>1c7690a17a6b37945712b4ec2bbbc6c5</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>fio23.sh</t>
+          <t>fio2.sh</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>d4d01fad99267fd3ee7ea1d5a33603ee</t>
+          <t>512b9068b4cd702237ab8242caceab38</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>fio24.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>3ca97774638a87f9b53eb180984bb092</t>
+          <t>c3f3635af167d80fe12262fe0e8f1ab6</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>fio2.sh</t>
+          <t>fio24.sh</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>512b9068b4cd702237ab8242caceab38</t>
+          <t>3ca97774638a87f9b53eb180984bb092</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>fio22.sh</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1c7690a17a6b37945712b4ec2bbbc6c5</t>
+          <t>1a4c333360c85f36c39cfa4bd8c20d4b</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio2.sh</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4078,7 +4078,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>c3f3635af167d80fe12262fe0e8f1ab6</t>
+          <t>512b9068b4cd702237ab8242caceab38</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>fio2.sh</t>
+          <t>fio23.sh</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>512b9068b4cd702237ab8242caceab38</t>
+          <t>d4d01fad99267fd3ee7ea1d5a33603ee</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>run4.txt</t>
+          <t>run7.txt</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>5c1e90dd9218df5d8f22afadcd08ea7a</t>
+          <t>72c86665138b4e93b411925f68973bd5</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>run6.txt</t>
+          <t>run3.txt</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>843ae090752a3b4e6c5a610a1fbfc960</t>
+          <t>a8a3921f194226ae08f898c53588e92c</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>run3.txt</t>
+          <t>run4.txt</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>a8a3921f194226ae08f898c53588e92c</t>
+          <t>5c1e90dd9218df5d8f22afadcd08ea7a</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>run7.txt</t>
+          <t>run6.txt</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>72c86665138b4e93b411925f68973bd5</t>
+          <t>843ae090752a3b4e6c5a610a1fbfc960</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>run2.txt</t>
+          <t>run8.txt</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>19f65c8cd488fa50f85195cb109dac7d</t>
+          <t>7a9fad1feddb4acefbc93ebfafb38d58</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>run6.txt</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>ef13365435afdcbee40cf5af5b1fbbc0</t>
+          <t>fdb3ec5113b4e194c98f57da822ce962</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>run6.txt</t>
+          <t>run2.txt</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>fdb3ec5113b4e194c98f57da822ce962</t>
+          <t>19f65c8cd488fa50f85195cb109dac7d</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>7a9fad1feddb4acefbc93ebfafb38d58</t>
+          <t>056518a0bc767d2d7db5adab0270032e</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>run8.txt</t>
+          <t>run1.txt</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>056518a0bc767d2d7db5adab0270032e</t>
+          <t>ef13365435afdcbee40cf5af5b1fbbc0</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>run7.txt</t>
+          <t>run8.txt</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>7c3b527c15b42cfca189c69f3014f358</t>
+          <t>c00751d2707f159a71c92a2288e276f4</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>run8.txt</t>
+          <t>run7.txt</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>c00751d2707f159a71c92a2288e276f4</t>
+          <t>7c3b527c15b42cfca189c69f3014f358</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>run4.txt</t>
+          <t>run7.txt</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>f0bdcb0e996f6c4e9bf45891d941dfb0</t>
+          <t>d8308e123e9a1f12453b9b1201f20611</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>run7.txt</t>
+          <t>run1.txt</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>d8308e123e9a1f12453b9b1201f20611</t>
+          <t>2a23a08d137ca7fb4e3b15b94d7a0e6b</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>run3.txt</t>
+          <t>run4.txt</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2e74cc0f273af72aee1edb85c3bd622d</t>
+          <t>0b0e3e74b3bdfd23bb2df6058d18cf91</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>run4.txt</t>
+          <t>run3.txt</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0b0e3e74b3bdfd23bb2df6058d18cf91</t>
+          <t>2e74cc0f273af72aee1edb85c3bd622d</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>run4.txt</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2a23a08d137ca7fb4e3b15b94d7a0e6b</t>
+          <t>f0bdcb0e996f6c4e9bf45891d941dfb0</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>device.ios2</t>
+          <t>device.ios4</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>51b08f41de06d5bd0ff0259c5f0efc3f</t>
+          <t>ad62b8f76d3623bf276e3206c5ce6424</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>device.ios4</t>
+          <t>device.ios2</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>ad62b8f76d3623bf276e3206c5ce6424</t>
+          <t>51b08f41de06d5bd0ff0259c5f0efc3f</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kall.bkp</t>
+          <t>devlist.vm4_4kall</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4828,11 +4828,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>4fdde708a5376fc76f2391c330a9310c</t>
+          <t>c17a73aa1a4d93f49861b304eedbecae</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>devlist.vm4_4kall</t>
+          <t>devlist.vm3_4kall.bkp</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4853,11 +4853,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>c17a73aa1a4d93f49861b304eedbecae</t>
+          <t>4fdde708a5376fc76f2391c330a9310c</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">

--- a/siamese_dataset.xlsx
+++ b/siamese_dataset.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9ada1c93f3ed500fcdcee67415efe684</t>
+          <t>7cc9db896fc77886d4382ee98cc217db</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -503,7 +503,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9ada1c93f3ed500fcdcee67415efe684</t>
+          <t>7cc9db896fc77886d4382ee98cc217db</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7cc9db896fc77886d4382ee98cc217db</t>
+          <t>9ada1c93f3ed500fcdcee67415efe684</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -553,7 +553,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7cc9db896fc77886d4382ee98cc217db</t>
+          <t>9ada1c93f3ed500fcdcee67415efe684</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>fio2.sh</t>
+          <t>fio3.sh</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>512b9068b4cd702237ab8242caceab38</t>
+          <t>f995d8a0bc8d1f2528220691f5156c37</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>fio5.sh</t>
+          <t>fio7.sh</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>9040171748b12ce1ef6a8536ac982b3e</t>
+          <t>93d3ec88c2682a6b17d0a0b845c0b772</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>fio9.sh</t>
+          <t>fio8.sh</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>61183c5e98db4661b70386d3bfc25ad1</t>
+          <t>d436cb0e1a476937a5a1957ea19a530a</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>fio3.sh</t>
+          <t>fio2.sh</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>f995d8a0bc8d1f2528220691f5156c37</t>
+          <t>512b9068b4cd702237ab8242caceab38</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>fio7.sh</t>
+          <t>fio9.sh</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>93d3ec88c2682a6b17d0a0b845c0b772</t>
+          <t>61183c5e98db4661b70386d3bfc25ad1</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>fio4.sh</t>
+          <t>fio5.sh</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>fcc11badd30b5102a26311a41b951a3c</t>
+          <t>9040171748b12ce1ef6a8536ac982b3e</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>fio8.sh</t>
+          <t>fio6.sh</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>d436cb0e1a476937a5a1957ea19a530a</t>
+          <t>6376420d566d841ce003e14021f5c792</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>fio6.sh</t>
+          <t>fio4.sh</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6376420d566d841ce003e14021f5c792</t>
+          <t>fcc11badd30b5102a26311a41b951a3c</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>fio16.sh</t>
+          <t>fio13.sh</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>172fa5348233549194189081d49f9f6d</t>
+          <t>020e043234bba88e36b5941af15254d5</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>fio11.sh</t>
+          <t>fio16.sh</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>e22aa548fea442a35b145881113905b5</t>
+          <t>172fa5348233549194189081d49f9f6d</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>fio13.sh</t>
+          <t>fio17.sh</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>020e043234bba88e36b5941af15254d5</t>
+          <t>5017eef8adf42f9837bbd372d66e547d</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>fio19.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>15f9d8fcfcd6ec32a51ab99a9e64f19e</t>
+          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>fio14.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>45bac4192c61cfeba14a64386a4b6e65</t>
+          <t>d3184ae79e15874650c264c7fc201803</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio11.sh</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>d3184ae79e15874650c264c7fc201803</t>
+          <t>e22aa548fea442a35b145881113905b5</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>fio18.sh</t>
+          <t>fio19.sh</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2709ab002720bf259dfd7f79bf2a2677</t>
+          <t>15f9d8fcfcd6ec32a51ab99a9e64f19e</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio14.sh</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
+          <t>45bac4192c61cfeba14a64386a4b6e65</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>fio15.sh</t>
+          <t>fio18.sh</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0e7fefd4bf12e3b10921488a1733c871</t>
+          <t>2709ab002720bf259dfd7f79bf2a2677</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>fio17.sh</t>
+          <t>fio15.sh</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5017eef8adf42f9837bbd372d66e547d</t>
+          <t>0e7fefd4bf12e3b10921488a1733c871</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>fio24.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>9889b12792dc5156d8b0bea1b6a9cc63</t>
+          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>fio23.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>de9caef7e5395d10cc8e56ee6c4e6d96</t>
+          <t>d3184ae79e15874650c264c7fc201803</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio23.sh</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>d3184ae79e15874650c264c7fc201803</t>
+          <t>de9caef7e5395d10cc8e56ee6c4e6d96</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio24.sh</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
+          <t>9889b12792dc5156d8b0bea1b6a9cc63</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>run6.txt</t>
+          <t>run11.txt</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>run18.txt</t>
+          <t>run5.txt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>run23.txt</t>
+          <t>run6.txt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>run2.txt</t>
+          <t>run21.txt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>run3.txt</t>
+          <t>run2.txt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>run8.txt</t>
+          <t>run12.txt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>run13.txt</t>
+          <t>run7.txt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>run12.txt</t>
+          <t>run14.txt</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>run16.txt</t>
+          <t>run15.txt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>run21.txt</t>
+          <t>run3.txt</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>run5.txt</t>
+          <t>run10.txt</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>run10.txt</t>
+          <t>run16.txt</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>run15.txt</t>
+          <t>run13.txt</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>run4.txt</t>
+          <t>run8.txt</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>run20.txt</t>
+          <t>run17.txt</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>run7.txt</t>
+          <t>run4.txt</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>run19.txt</t>
+          <t>run20.txt</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>run11.txt</t>
+          <t>run18.txt</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>run17.txt</t>
+          <t>run24.txt</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>run14.txt</t>
+          <t>run19.txt</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>run24.txt</t>
+          <t>run23.txt</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>device.ios4</t>
+          <t>device.ios3</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ad62b8f76d3623bf276e3206c5ce6424</t>
+          <t>bf6d291ed6e2c0330b061c3ce2422e24</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>device.ios3</t>
+          <t>device.ios4</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>bf6d291ed6e2c0330b061c3ce2422e24</t>
+          <t>ad62b8f76d3623bf276e3206c5ce6424</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KKD geo tagging.xlsx</t>
+          <t>KKD geo tagging (2).xlsx</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KKD geo tagging (2).xlsx</t>
+          <t>KKD geo tagging.xlsx</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>LS____ (2).pdf</t>
+          <t>LS____ (1).pdf</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>dfa219b9bbb5df3fb8174665ff7c50ae</t>
+          <t>dce5816ff3c5d827355d0edc6e5d9c80</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>LS____ (1).pdf</t>
+          <t>LS____ (2).pdf</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>dce5816ff3c5d827355d0edc6e5d9c80</t>
+          <t>dfa219b9bbb5df3fb8174665ff7c50ae</t>
         </is>
       </c>
       <c r="E99" t="n">

--- a/siamese_dataset.xlsx
+++ b/siamese_dataset.xlsx
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>fio3.sh</t>
+          <t>fio8.sh</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>f995d8a0bc8d1f2528220691f5156c37</t>
+          <t>d436cb0e1a476937a5a1957ea19a530a</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>fio7.sh</t>
+          <t>fio5.sh</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>93d3ec88c2682a6b17d0a0b845c0b772</t>
+          <t>9040171748b12ce1ef6a8536ac982b3e</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>fio8.sh</t>
+          <t>fio2.sh</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>d436cb0e1a476937a5a1957ea19a530a</t>
+          <t>512b9068b4cd702237ab8242caceab38</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>fio2.sh</t>
+          <t>fio9.sh</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>512b9068b4cd702237ab8242caceab38</t>
+          <t>61183c5e98db4661b70386d3bfc25ad1</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>fio9.sh</t>
+          <t>fio4.sh</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>61183c5e98db4661b70386d3bfc25ad1</t>
+          <t>fcc11badd30b5102a26311a41b951a3c</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>fio5.sh</t>
+          <t>fio7.sh</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9040171748b12ce1ef6a8536ac982b3e</t>
+          <t>93d3ec88c2682a6b17d0a0b845c0b772</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>fio4.sh</t>
+          <t>fio3.sh</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>fcc11badd30b5102a26311a41b951a3c</t>
+          <t>f995d8a0bc8d1f2528220691f5156c37</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>fio13.sh</t>
+          <t>fio16.sh</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>020e043234bba88e36b5941af15254d5</t>
+          <t>172fa5348233549194189081d49f9f6d</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>fio16.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>172fa5348233549194189081d49f9f6d</t>
+          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>fio17.sh</t>
+          <t>fio13.sh</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5017eef8adf42f9837bbd372d66e547d</t>
+          <t>020e043234bba88e36b5941af15254d5</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio14.sh</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
+          <t>45bac4192c61cfeba14a64386a4b6e65</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>d3184ae79e15874650c264c7fc201803</t>
+          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>fio11.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>e22aa548fea442a35b145881113905b5</t>
+          <t>d3184ae79e15874650c264c7fc201803</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>fio19.sh</t>
+          <t>fio18.sh</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>15f9d8fcfcd6ec32a51ab99a9e64f19e</t>
+          <t>2709ab002720bf259dfd7f79bf2a2677</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio19.sh</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
+          <t>15f9d8fcfcd6ec32a51ab99a9e64f19e</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>fio14.sh</t>
+          <t>fio17.sh</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>45bac4192c61cfeba14a64386a4b6e65</t>
+          <t>5017eef8adf42f9837bbd372d66e547d</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>fio18.sh</t>
+          <t>fio15.sh</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2709ab002720bf259dfd7f79bf2a2677</t>
+          <t>0e7fefd4bf12e3b10921488a1733c871</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>fio15.sh</t>
+          <t>fio11.sh</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0e7fefd4bf12e3b10921488a1733c871</t>
+          <t>e22aa548fea442a35b145881113905b5</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
+          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio24.sh</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>d3184ae79e15874650c264c7fc201803</t>
+          <t>9889b12792dc5156d8b0bea1b6a9cc63</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>fio23.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>de9caef7e5395d10cc8e56ee6c4e6d96</t>
+          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
+          <t>d3184ae79e15874650c264c7fc201803</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>fio24.sh</t>
+          <t>fio23.sh</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>9889b12792dc5156d8b0bea1b6a9cc63</t>
+          <t>de9caef7e5395d10cc8e56ee6c4e6d96</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>run11.txt</t>
+          <t>run4.txt</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>run5.txt</t>
+          <t>run22.txt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>run6.txt</t>
+          <t>run23.txt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>run21.txt</t>
+          <t>run3.txt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>run22.txt</t>
+          <t>run10.txt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>run2.txt</t>
+          <t>run8.txt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>run12.txt</t>
+          <t>run18.txt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>run7.txt</t>
+          <t>run20.txt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>run14.txt</t>
+          <t>run2.txt</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>run15.txt</t>
+          <t>run14.txt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>run9.txt</t>
+          <t>run12.txt</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>run3.txt</t>
+          <t>run13.txt</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>run10.txt</t>
+          <t>run24.txt</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>run16.txt</t>
+          <t>run21.txt</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>run13.txt</t>
+          <t>run11.txt</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>run8.txt</t>
+          <t>run6.txt</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>run17.txt</t>
+          <t>run7.txt</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>run4.txt</t>
+          <t>run17.txt</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>run20.txt</t>
+          <t>run19.txt</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>run18.txt</t>
+          <t>run9.txt</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>run24.txt</t>
+          <t>run15.txt</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>run19.txt</t>
+          <t>run16.txt</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>run23.txt</t>
+          <t>run5.txt</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>device.ios3</t>
+          <t>device.ios2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>bf6d291ed6e2c0330b061c3ce2422e24</t>
+          <t>51b08f41de06d5bd0ff0259c5f0efc3f</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>device.ios2</t>
+          <t>device.ios3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>51b08f41de06d5bd0ff0259c5f0efc3f</t>
+          <t>bf6d291ed6e2c0330b061c3ce2422e24</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kall.bkp</t>
+          <t>devlist.vm4_4kall.bkp</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2653,11 +2653,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4fdde708a5376fc76f2391c330a9310c</t>
+          <t>c17a73aa1a4d93f49861b304eedbecae</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>devlist.vm4_4kall.bkp</t>
+          <t>devlist.vm3_4kall.bkp</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2703,11 +2703,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>c17a73aa1a4d93f49861b304eedbecae</t>
+          <t>4fdde708a5376fc76f2391c330a9310c</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KKD geo tagging.xlsx</t>
+          <t>KKD geo tagging (3).xlsx</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>KKD geo tagging (3).xlsx</t>
+          <t>KKD geo tagging.xlsx</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>LS____ (1).pdf</t>
+          <t>LS____ (2).pdf</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>dce5816ff3c5d827355d0edc6e5d9c80</t>
+          <t>dfa219b9bbb5df3fb8174665ff7c50ae</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>LS____ (2).pdf</t>
+          <t>LS____ (1).pdf</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>dfa219b9bbb5df3fb8174665ff7c50ae</t>
+          <t>dce5816ff3c5d827355d0edc6e5d9c80</t>
         </is>
       </c>
       <c r="E99" t="n">

--- a/siamese_dataset.xlsx
+++ b/siamese_dataset.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7cc9db896fc77886d4382ee98cc217db</t>
+          <t>9ada1c93f3ed500fcdcee67415efe684</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -503,7 +503,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7cc9db896fc77886d4382ee98cc217db</t>
+          <t>9ada1c93f3ed500fcdcee67415efe684</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9ada1c93f3ed500fcdcee67415efe684</t>
+          <t>7cc9db896fc77886d4382ee98cc217db</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -553,7 +553,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9ada1c93f3ed500fcdcee67415efe684</t>
+          <t>7cc9db896fc77886d4382ee98cc217db</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>fio8.sh</t>
+          <t>fio3.sh</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>d436cb0e1a476937a5a1957ea19a530a</t>
+          <t>f995d8a0bc8d1f2528220691f5156c37</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>fio5.sh</t>
+          <t>fio4.sh</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>9040171748b12ce1ef6a8536ac982b3e</t>
+          <t>fcc11badd30b5102a26311a41b951a3c</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>fio2.sh</t>
+          <t>fio7.sh</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>512b9068b4cd702237ab8242caceab38</t>
+          <t>93d3ec88c2682a6b17d0a0b845c0b772</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>fio9.sh</t>
+          <t>fio6.sh</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>61183c5e98db4661b70386d3bfc25ad1</t>
+          <t>6376420d566d841ce003e14021f5c792</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>fio4.sh</t>
+          <t>fio2.sh</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>fcc11badd30b5102a26311a41b951a3c</t>
+          <t>512b9068b4cd702237ab8242caceab38</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>fio7.sh</t>
+          <t>fio5.sh</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>93d3ec88c2682a6b17d0a0b845c0b772</t>
+          <t>9040171748b12ce1ef6a8536ac982b3e</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>fio6.sh</t>
+          <t>fio9.sh</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6376420d566d841ce003e14021f5c792</t>
+          <t>61183c5e98db4661b70386d3bfc25ad1</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>fio3.sh</t>
+          <t>fio8.sh</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>f995d8a0bc8d1f2528220691f5156c37</t>
+          <t>d436cb0e1a476937a5a1957ea19a530a</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>fio16.sh</t>
+          <t>fio15.sh</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>172fa5348233549194189081d49f9f6d</t>
+          <t>0e7fefd4bf12e3b10921488a1733c871</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio16.sh</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
+          <t>172fa5348233549194189081d49f9f6d</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>fio13.sh</t>
+          <t>fio17.sh</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>020e043234bba88e36b5941af15254d5</t>
+          <t>5017eef8adf42f9837bbd372d66e547d</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>fio14.sh</t>
+          <t>fio11.sh</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>45bac4192c61cfeba14a64386a4b6e65</t>
+          <t>e22aa548fea442a35b145881113905b5</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio14.sh</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>d3184ae79e15874650c264c7fc201803</t>
+          <t>45bac4192c61cfeba14a64386a4b6e65</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>fio18.sh</t>
+          <t>fio19.sh</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2709ab002720bf259dfd7f79bf2a2677</t>
+          <t>15f9d8fcfcd6ec32a51ab99a9e64f19e</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>fio19.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>15f9d8fcfcd6ec32a51ab99a9e64f19e</t>
+          <t>d3184ae79e15874650c264c7fc201803</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>fio17.sh</t>
+          <t>fio18.sh</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5017eef8adf42f9837bbd372d66e547d</t>
+          <t>2709ab002720bf259dfd7f79bf2a2677</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>fio15.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0e7fefd4bf12e3b10921488a1733c871</t>
+          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>fio11.sh</t>
+          <t>fio13.sh</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>e22aa548fea442a35b145881113905b5</t>
+          <t>020e043234bba88e36b5941af15254d5</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
+          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>fio24.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>9889b12792dc5156d8b0bea1b6a9cc63</t>
+          <t>d3184ae79e15874650c264c7fc201803</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio24.sh</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
+          <t>9889b12792dc5156d8b0bea1b6a9cc63</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio23.sh</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>d3184ae79e15874650c264c7fc201803</t>
+          <t>de9caef7e5395d10cc8e56ee6c4e6d96</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>fio23.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>de9caef7e5395d10cc8e56ee6c4e6d96</t>
+          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>run4.txt</t>
+          <t>run14.txt</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>run22.txt</t>
+          <t>run8.txt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>run23.txt</t>
+          <t>run10.txt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>run3.txt</t>
+          <t>run7.txt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>run10.txt</t>
+          <t>run5.txt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>run8.txt</t>
+          <t>run20.txt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>run18.txt</t>
+          <t>run15.txt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>run20.txt</t>
+          <t>run22.txt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>run2.txt</t>
+          <t>run19.txt</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>run14.txt</t>
+          <t>run2.txt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>run12.txt</t>
+          <t>run6.txt</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>run13.txt</t>
+          <t>run21.txt</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>run21.txt</t>
+          <t>run23.txt</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>run11.txt</t>
+          <t>run18.txt</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>run6.txt</t>
+          <t>run17.txt</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>run7.txt</t>
+          <t>run11.txt</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>run17.txt</t>
+          <t>run13.txt</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>run19.txt</t>
+          <t>run4.txt</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>run9.txt</t>
+          <t>run3.txt</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>run15.txt</t>
+          <t>run16.txt</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>run16.txt</t>
+          <t>run9.txt</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>run5.txt</t>
+          <t>run12.txt</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>device.ios2</t>
+          <t>device.ios3</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>51b08f41de06d5bd0ff0259c5f0efc3f</t>
+          <t>bf6d291ed6e2c0330b061c3ce2422e24</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>device.ios3</t>
+          <t>device.ios4</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>bf6d291ed6e2c0330b061c3ce2422e24</t>
+          <t>ad62b8f76d3623bf276e3206c5ce6424</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>device.ios4</t>
+          <t>device.ios2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ad62b8f76d3623bf276e3206c5ce6424</t>
+          <t>51b08f41de06d5bd0ff0259c5f0efc3f</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>devlist.vm4_4kall</t>
+          <t>devlist.vm3_4kall.bkp</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2678,11 +2678,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>c17a73aa1a4d93f49861b304eedbecae</t>
+          <t>4fdde708a5376fc76f2391c330a9310c</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kall.bkp</t>
+          <t>devlist.vm4_4kall</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2703,11 +2703,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4fdde708a5376fc76f2391c330a9310c</t>
+          <t>c17a73aa1a4d93f49861b304eedbecae</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KKD geo tagging (2).xlsx</t>
+          <t>KKD geo tagging.xlsx</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>KKD geo tagging.xlsx</t>
+          <t>KKD geo tagging (2).xlsx</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">

--- a/siamese_dataset.xlsx
+++ b/siamese_dataset.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9ada1c93f3ed500fcdcee67415efe684</t>
+          <t>7cc9db896fc77886d4382ee98cc217db</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -503,7 +503,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9ada1c93f3ed500fcdcee67415efe684</t>
+          <t>7cc9db896fc77886d4382ee98cc217db</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7cc9db896fc77886d4382ee98cc217db</t>
+          <t>9ada1c93f3ed500fcdcee67415efe684</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -553,7 +553,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7cc9db896fc77886d4382ee98cc217db</t>
+          <t>9ada1c93f3ed500fcdcee67415efe684</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>fio7.sh</t>
+          <t>fio6.sh</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>93d3ec88c2682a6b17d0a0b845c0b772</t>
+          <t>6376420d566d841ce003e14021f5c792</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>fio6.sh</t>
+          <t>fio2.sh</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6376420d566d841ce003e14021f5c792</t>
+          <t>512b9068b4cd702237ab8242caceab38</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>fio2.sh</t>
+          <t>fio5.sh</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>512b9068b4cd702237ab8242caceab38</t>
+          <t>9040171748b12ce1ef6a8536ac982b3e</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>fio5.sh</t>
+          <t>fio7.sh</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9040171748b12ce1ef6a8536ac982b3e</t>
+          <t>93d3ec88c2682a6b17d0a0b845c0b772</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>fio9.sh</t>
+          <t>fio8.sh</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>61183c5e98db4661b70386d3bfc25ad1</t>
+          <t>d436cb0e1a476937a5a1957ea19a530a</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>fio8.sh</t>
+          <t>fio9.sh</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>d436cb0e1a476937a5a1957ea19a530a</t>
+          <t>61183c5e98db4661b70386d3bfc25ad1</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>fio15.sh</t>
+          <t>fio19.sh</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0e7fefd4bf12e3b10921488a1733c871</t>
+          <t>15f9d8fcfcd6ec32a51ab99a9e64f19e</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>fio16.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>172fa5348233549194189081d49f9f6d</t>
+          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>fio17.sh</t>
+          <t>fio15.sh</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5017eef8adf42f9837bbd372d66e547d</t>
+          <t>0e7fefd4bf12e3b10921488a1733c871</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>fio11.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>e22aa548fea442a35b145881113905b5</t>
+          <t>d3184ae79e15874650c264c7fc201803</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio11.sh</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
+          <t>e22aa548fea442a35b145881113905b5</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>fio14.sh</t>
+          <t>fio17.sh</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>45bac4192c61cfeba14a64386a4b6e65</t>
+          <t>5017eef8adf42f9837bbd372d66e547d</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>fio19.sh</t>
+          <t>fio14.sh</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>15f9d8fcfcd6ec32a51ab99a9e64f19e</t>
+          <t>45bac4192c61cfeba14a64386a4b6e65</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>d3184ae79e15874650c264c7fc201803</t>
+          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>fio18.sh</t>
+          <t>fio16.sh</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2709ab002720bf259dfd7f79bf2a2677</t>
+          <t>172fa5348233549194189081d49f9f6d</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio18.sh</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
+          <t>2709ab002720bf259dfd7f79bf2a2677</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
+          <t>d3184ae79e15874650c264c7fc201803</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio24.sh</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>d3184ae79e15874650c264c7fc201803</t>
+          <t>9889b12792dc5156d8b0bea1b6a9cc63</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>fio24.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>9889b12792dc5156d8b0bea1b6a9cc63</t>
+          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
+          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>run14.txt</t>
+          <t>run19.txt</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>run8.txt</t>
+          <t>run7.txt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>run10.txt</t>
+          <t>run15.txt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>run7.txt</t>
+          <t>run4.txt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>run5.txt</t>
+          <t>run16.txt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>run20.txt</t>
+          <t>run12.txt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>run15.txt</t>
+          <t>run23.txt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>run22.txt</t>
+          <t>run6.txt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>run19.txt</t>
+          <t>run21.txt</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>run2.txt</t>
+          <t>run13.txt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>run6.txt</t>
+          <t>run22.txt</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>run21.txt</t>
+          <t>run18.txt</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>run24.txt</t>
+          <t>run8.txt</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>run23.txt</t>
+          <t>run14.txt</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>run18.txt</t>
+          <t>run9.txt</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>run11.txt</t>
+          <t>run24.txt</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>run13.txt</t>
+          <t>run5.txt</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>run4.txt</t>
+          <t>run11.txt</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>run16.txt</t>
+          <t>run10.txt</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>run9.txt</t>
+          <t>run2.txt</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>run12.txt</t>
+          <t>run20.txt</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>device.ios4</t>
+          <t>device.ios2</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ad62b8f76d3623bf276e3206c5ce6424</t>
+          <t>51b08f41de06d5bd0ff0259c5f0efc3f</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>device.ios2</t>
+          <t>device.ios4</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>51b08f41de06d5bd0ff0259c5f0efc3f</t>
+          <t>ad62b8f76d3623bf276e3206c5ce6424</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>devlist.vm4_4kall.bkp</t>
+          <t>devlist.vm4_4kall</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kall.bkp</t>
+          <t>devlist.vm4_4kall.bkp</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2678,11 +2678,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4fdde708a5376fc76f2391c330a9310c</t>
+          <t>c17a73aa1a4d93f49861b304eedbecae</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>devlist.vm4_4kall</t>
+          <t>devlist.vm3_4kall.bkp</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2703,11 +2703,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>c17a73aa1a4d93f49861b304eedbecae</t>
+          <t>4fdde708a5376fc76f2391c330a9310c</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KKD geo tagging (3).xlsx</t>
+          <t>KKD geo tagging (2).xlsx</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>KKD geo tagging (2).xlsx</t>
+          <t>KKD geo tagging (3).xlsx</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">

--- a/siamese_dataset.xlsx
+++ b/siamese_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>.DS_Store</t>
+          <t>ACC_REP.txt</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>.DS_Store</t>
+          <t>ACC_REP.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3b0d3dee8a786a1158214002adfafa24</t>
+          <t>d7fdc32b3fa9426ce961c30528cd492b</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7cc9db896fc77886d4382ee98cc217db</t>
+          <t>35b98a33898334b9545350823664197a</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -488,22 +488,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>.DS_Store</t>
+          <t>BAND_META.txt</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>.DS_Store</t>
+          <t>BAND_META.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3b0d3dee8a786a1158214002adfafa24</t>
+          <t>e9fb2f6694f046bb99b214b86d1baac5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7cc9db896fc77886d4382ee98cc217db</t>
+          <t>06459dbf6abf64eb94f7a45edd46e10b</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -513,22 +513,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>.DS_Store</t>
+          <t>ACC_REP.txt</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>.DS_Store</t>
+          <t>ACC_REP.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3b0d3dee8a786a1158214002adfafa24</t>
+          <t>5de482074f6ccb6d45cb849ff8b1b0d6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9ada1c93f3ed500fcdcee67415efe684</t>
+          <t>300f04b67f545d6d2afb89e6eeed080f</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -538,22 +538,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>.DS_Store</t>
+          <t>ACC_REP.txt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>.DS_Store</t>
+          <t>ACC_REP.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3b0d3dee8a786a1158214002adfafa24</t>
+          <t>5de482074f6ccb6d45cb849ff8b1b0d6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9ada1c93f3ed500fcdcee67415efe684</t>
+          <t>300f04b67f545d6d2afb89e6eeed080f</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -563,97 +563,97 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>08456059.pdf</t>
+          <t>ACC_REP.txt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>08456059.pdf</t>
+          <t>ACC_REP.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0f719860cd8c2a3b72428dcac42b5feb</t>
+          <t>5de482074f6ccb6d45cb849ff8b1b0d6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0f719860cd8c2a3b72428dcac42b5feb</t>
+          <t>6f847c5992cffe66ab0623cfa93ea473</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20180006549.pdf</t>
+          <t>ACC_REP.txt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20180006549.pdf</t>
+          <t>ACC_REP.txt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1407837f3ccc1f78a9cfdca8482fe391</t>
+          <t>5de482074f6ccb6d45cb849ff8b1b0d6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1407837f3ccc1f78a9cfdca8482fe391</t>
+          <t>6f847c5992cffe66ab0623cfa93ea473</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>235434231_RAW_PAN.pix</t>
+          <t>BAND2.tif.aux.xml</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>235434231_RAW_PAN.pix</t>
+          <t>BAND2.tif.aux.xml</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>37627ef216e76ae128e67f8f9efaeb2b</t>
+          <t>0a9fe23ecb4f17ec469e74efa452e9cc</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>37627ef216e76ae128e67f8f9efaeb2b</t>
+          <t>9a523337ce50d5b97b80fea01b103f9c</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>235434251_RAW_PAN_LOG.txt</t>
+          <t>1.JPG</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>235434251_RAW_PAN_LOG.txt</t>
+          <t>1.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>a1af1c968000a7a2b3c6d9e867e618d9</t>
+          <t>6cdb5e23de68d78c5de48f69588b4f42</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>a1af1c968000a7a2b3c6d9e867e618d9</t>
+          <t>6cdb5e23de68d78c5de48f69588b4f42</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3.205-CVE_to_be_installed.txt</t>
+          <t>2.JPG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3.205-CVE_to_be_installed.txt</t>
+          <t>2.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>338a4a67b76cfe5fccc054125f318554</t>
+          <t>f06501306c1dd36ec0d312047e56fa2f</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>338a4a67b76cfe5fccc054125f318554</t>
+          <t>f06501306c1dd36ec0d312047e56fa2f</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -688,22 +688,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3.207-CVE_to_be_installed.txt</t>
+          <t>3.mp4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3.207-CVE_to_be_installed.txt</t>
+          <t>3.mp4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1947d204beda6f330f4049440e848fcb</t>
+          <t>f06501306c1dd36ec0d312047e56fa2f</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1947d204beda6f330f4049440e848fcb</t>
+          <t>f06501306c1dd36ec0d312047e56fa2f</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -713,22 +713,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>anaconda-ks.cfg</t>
+          <t>8.pdf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>anaconda-ks.cfg</t>
+          <t>8.pdf</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2a11d4a69c4f75a3a055f128f65bbaea</t>
+          <t>09dae6d1529b936e961b133ddf2838d0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2a11d4a69c4f75a3a055f128f65bbaea</t>
+          <t>09dae6d1529b936e961b133ddf2838d0</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -738,22 +738,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>authorized_keys-4-8-17</t>
+          <t>9.pdf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>authorized_keys-4-8-17</t>
+          <t>9.pdf</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>79d7670f625aceb629d39f31d2616d16</t>
+          <t>6cdb5e23de68d78c5de48f69588b4f42</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>79d7670f625aceb629d39f31d2616d16</t>
+          <t>6cdb5e23de68d78c5de48f69588b4f42</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -763,22 +763,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BAND_RPC.txt</t>
+          <t>geojson1.geojson</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BAND_RPC.txt</t>
+          <t>geojson1.geojson</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>27545425eb0aef647b03d3e9cdee2b00</t>
+          <t>a3a9570f539f926b372a0f82d1e5a4fd</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27545425eb0aef647b03d3e9cdee2b00</t>
+          <t>a3a9570f539f926b372a0f82d1e5a4fd</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -788,22 +788,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>buttons.print.min.js</t>
+          <t>geopackage1.gpkg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>buttons.print.min.js</t>
+          <t>geopackage1.gpkg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6545b810f684f84e00e5506c67c8d9a2</t>
+          <t>82aabe6b9615bc3d912da65b94f7f0bb</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6545b810f684f84e00e5506c67c8d9a2</t>
+          <t>82aabe6b9615bc3d912da65b94f7f0bb</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -813,22 +813,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>catalina.2023-07-14.log</t>
+          <t>geopackage_corrupted.gpkg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>catalina.2023-07-14.log</t>
+          <t>geopackage_corrupted.gpkg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>dce65cc373d5c905a2f91ad479b57ee5</t>
+          <t>dee9f25531dcc7d759ee0dd16efb9923</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>dce65cc373d5c905a2f91ad479b57ee5</t>
+          <t>dee9f25531dcc7d759ee0dd16efb9923</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -838,22 +838,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>catalina.2023-07-16.log</t>
+          <t>India_Country_Boundary.cpg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>catalina.2023-07-16.log</t>
+          <t>India_Country_Boundary.cpg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>885b03dd6381d00b62c52bdff5a09774</t>
+          <t>ae3b3df9970b49b6523e608759bc957d</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>885b03dd6381d00b62c52bdff5a09774</t>
+          <t>ae3b3df9970b49b6523e608759bc957d</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -863,22 +863,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>catalina.2023-07-23.log</t>
+          <t>India_Country_Boundary.dbf</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>catalina.2023-07-23.log</t>
+          <t>India_Country_Boundary.dbf</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>f7b15010a71e92e01e52b0c89480c44b</t>
+          <t>a34197b9f8207244f1640662bb359f77</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>f7b15010a71e92e01e52b0c89480c44b</t>
+          <t>a34197b9f8207244f1640662bb359f77</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -888,22 +888,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>catalina.2023-08-26.log</t>
+          <t>India_Country_Boundary.prj</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>catalina.2023-08-26.log</t>
+          <t>India_Country_Boundary.prj</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9ad7ad94c5c8f6c3d1b9073d74896686</t>
+          <t>9fef42dc42dede01c3ca00704497f947</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9ad7ad94c5c8f6c3d1b9073d74896686</t>
+          <t>9fef42dc42dede01c3ca00704497f947</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -913,22 +913,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>covid_excel_20-38.xlsx</t>
+          <t>India_Country_Boundary.sbn</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>covid_excel_20-38.xlsx</t>
+          <t>India_Country_Boundary.sbn</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6a409a2a5842cbcb5a4f85b8eadf6ddc</t>
+          <t>ba30e6b56b95f41347ab165928dc010e</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6a409a2a5842cbcb5a4f85b8eadf6ddc</t>
+          <t>ba30e6b56b95f41347ab165928dc010e</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -938,22 +938,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ddn-restapi-core-gs-4.2.1-3.3d53e4_dirty.noarch.rpm</t>
+          <t>India_Country_Boundary.sbx</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ddn-restapi-core-gs-4.2.1-3.3d53e4_dirty.noarch.rpm</t>
+          <t>India_Country_Boundary.sbx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>03fcff115d3b9a93ae327873bb732dcf</t>
+          <t>00784ff7922dbbef27cef33a0b2247ce</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>03fcff115d3b9a93ae327873bb732dcf</t>
+          <t>00784ff7922dbbef27cef33a0b2247ce</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -963,22 +963,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EaseUS Partition Master 9.2.2 Technician Edition (FULL + Patch).zip</t>
+          <t>India_Country_Boundary.shp</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EaseUS Partition Master 9.2.2 Technician Edition (FULL + Patch).zip</t>
+          <t>India_Country_Boundary.shp</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6686726bce15f12f677acf7e4f792993</t>
+          <t>8be0b8c45c3d94644a9fc26718a1a5c3</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6686726bce15f12f677acf7e4f792993</t>
+          <t>8be0b8c45c3d94644a9fc26718a1a5c3</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -988,22 +988,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>fio-3.1-1.el6.x86_64.rpm</t>
+          <t>India_Country_Boundary.shp.xml</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>fio-3.1-1.el6.x86_64.rpm</t>
+          <t>India_Country_Boundary.shp.xml</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>bbd051f850b06399528c77693e64e6d0</t>
+          <t>d01f5b24a209181abf5647545fd3f8e6</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>bbd051f850b06399528c77693e64e6d0</t>
+          <t>d01f5b24a209181abf5647545fd3f8e6</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1013,22 +1013,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>gpfs.gss.pmsensors-4.2.3-5.el7.x86_64.rpm</t>
+          <t>India_Country_Boundary.shx</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>gpfs.gss.pmsensors-4.2.3-5.el7.x86_64.rpm</t>
+          <t>India_Country_Boundary.shx</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8762e468777f7f6815ffc16fcfbfbdd2</t>
+          <t>32944f6f74941e96e4653547b6881038</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8762e468777f7f6815ffc16fcfbfbdd2</t>
+          <t>32944f6f74941e96e4653547b6881038</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1038,22 +1038,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>gwm66c08.jpg</t>
+          <t>India_State_Boundary.cpg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>gwm66c08.jpg</t>
+          <t>India_State_Boundary.cpg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>82e0901856d4268de6b18a511144b244</t>
+          <t>ae3b3df9970b49b6523e608759bc957d</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>82e0901856d4268de6b18a511144b244</t>
+          <t>ae3b3df9970b49b6523e608759bc957d</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1063,22 +1063,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>import CSV.txt</t>
+          <t>India_State_Boundary.dbf</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>import CSV.txt</t>
+          <t>India_State_Boundary.dbf</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3ce3294205ceddbfb5f390f89689cdc4</t>
+          <t>7c57927243301d30fddf8d64505bf2a3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3ce3294205ceddbfb5f390f89689cdc4</t>
+          <t>7c57927243301d30fddf8d64505bf2a3</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1088,22 +1088,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KKD geo tagging (1).xlsx</t>
+          <t>India_State_Boundary.prj</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KKD geo tagging (1).xlsx</t>
+          <t>India_State_Boundary.prj</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>66c2e9c8ad2fdbda9413f40d1300c29b</t>
+          <t>9fef42dc42dede01c3ca00704497f947</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>66c2e9c8ad2fdbda9413f40d1300c29b</t>
+          <t>9fef42dc42dede01c3ca00704497f947</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1113,22 +1113,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LS____.pdf</t>
+          <t>India_State_Boundary.sbn</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LS____.pdf</t>
+          <t>India_State_Boundary.sbn</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>203cb463f8278461e8ae7cbe054fcf74</t>
+          <t>aa46cc5b68e85e49f6e50920bb775aa5</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>203cb463f8278461e8ae7cbe054fcf74</t>
+          <t>aa46cc5b68e85e49f6e50920bb775aa5</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1138,22 +1138,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mmhealth.sh</t>
+          <t>India_State_Boundary.sbx</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mmhealth.sh</t>
+          <t>India_State_Boundary.sbx</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>73d72b6b90a312f7d6384ecf47035a26</t>
+          <t>6ee5c55592f43732a8c719c3fe4dd991</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>73d72b6b90a312f7d6384ecf47035a26</t>
+          <t>6ee5c55592f43732a8c719c3fe4dd991</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1163,22 +1163,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mounted</t>
+          <t>India_State_Boundary.shp</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mounted</t>
+          <t>India_State_Boundary.shp</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>887cd9d1507462d69bf825b7f6fd800c</t>
+          <t>ef82569afba42befb5f00da185d3dccc</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>887cd9d1507462d69bf825b7f6fd800c</t>
+          <t>ef82569afba42befb5f00da185d3dccc</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1188,22 +1188,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>NewGCPs.bk</t>
+          <t>India_State_Boundary.shp.xml</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NewGCPs.bk</t>
+          <t>India_State_Boundary.shp.xml</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ae224d21bb11a0fa667df9ae89cee1cb</t>
+          <t>e08aee7b976b33057a76aa83c0c00f79</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ae224d21bb11a0fa667df9ae89cee1cb</t>
+          <t>e08aee7b976b33057a76aa83c0c00f79</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1213,22 +1213,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SR159360_ddn_showall_20210222-13_54_51.tar.gz</t>
+          <t>India_State_Boundary.shx</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SR159360_ddn_showall_20210222-13_54_51.tar.gz</t>
+          <t>India_State_Boundary.shx</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>c481cbfdce81a97b61c78e06ea32d75e</t>
+          <t>0d8b3224249440d0bca682aef7fadcd8</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>c481cbfdce81a97b61c78e06ea32d75e</t>
+          <t>0d8b3224249440d0bca682aef7fadcd8</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1238,22 +1238,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SR170158_ddn_showall_20210902-13_20_38.tar.gz</t>
+          <t>lulc_sample1.img</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SR170158_ddn_showall_20210902-13_20_38.tar.gz</t>
+          <t>lulc_sample1.img</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>b1b8b337d03ee13f6b853e5836b0ad40</t>
+          <t>cca2d74ea7efcca828d03a059176e0dc</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>b1b8b337d03ee13f6b853e5836b0ad40</t>
+          <t>cca2d74ea7efcca828d03a059176e0dc</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1263,22 +1263,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>syslog</t>
+          <t>sample.json.txt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>syslog</t>
+          <t>sample.json.txt</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>766eb97d03fa0ab3e178e7f61f79bd40</t>
+          <t>d7986f83973e5f592ec1f82295081096</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>766eb97d03fa0ab3e178e7f61f79bd40</t>
+          <t>d7986f83973e5f592ec1f82295081096</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1288,22 +1288,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>table.sql</t>
+          <t>shapefile1.cpg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>table.sql</t>
+          <t>shapefile1.cpg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>99aeb1f128ddc9cba3c6b82ef03456fc</t>
+          <t>ae3b3df9970b49b6523e608759bc957d</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>99aeb1f128ddc9cba3c6b82ef03456fc</t>
+          <t>ae3b3df9970b49b6523e608759bc957d</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1313,297 +1313,297 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>shapefile1.dbf</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>fio3.sh</t>
+          <t>shapefile1.dbf</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2776d1a88ed80599f795c691c6a3905a</t>
+          <t>c0f816b233bb06611fbbe1521638cac6</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>f995d8a0bc8d1f2528220691f5156c37</t>
+          <t>c0f816b233bb06611fbbe1521638cac6</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>shapefile1.prj</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>fio4.sh</t>
+          <t>shapefile1.prj</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2776d1a88ed80599f795c691c6a3905a</t>
+          <t>c742bee3d4edfc2948a2ad08de1790a5</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>fcc11badd30b5102a26311a41b951a3c</t>
+          <t>c742bee3d4edfc2948a2ad08de1790a5</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>shapefile1.shp</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>fio6.sh</t>
+          <t>shapefile1.shp</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2776d1a88ed80599f795c691c6a3905a</t>
+          <t>4e0b3e2c2e282e117679bc67aba92316</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6376420d566d841ce003e14021f5c792</t>
+          <t>4e0b3e2c2e282e117679bc67aba92316</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>shapefile1.shx</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>fio2.sh</t>
+          <t>shapefile1.shx</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2776d1a88ed80599f795c691c6a3905a</t>
+          <t>5b515c8dca9e376667bbb193cd3d41b0</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>512b9068b4cd702237ab8242caceab38</t>
+          <t>5b515c8dca9e376667bbb193cd3d41b0</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>shapefile2_3857.cpg</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>fio5.sh</t>
+          <t>shapefile2_3857.cpg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2776d1a88ed80599f795c691c6a3905a</t>
+          <t>ae3b3df9970b49b6523e608759bc957d</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>9040171748b12ce1ef6a8536ac982b3e</t>
+          <t>ae3b3df9970b49b6523e608759bc957d</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>shapefile2_3857.dbf</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>fio7.sh</t>
+          <t>shapefile2_3857.dbf</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2776d1a88ed80599f795c691c6a3905a</t>
+          <t>ba511eb115e4c9406af584aa0d289147</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>93d3ec88c2682a6b17d0a0b845c0b772</t>
+          <t>ba511eb115e4c9406af584aa0d289147</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>shapefile2_3857.prj</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>fio8.sh</t>
+          <t>shapefile2_3857.prj</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2776d1a88ed80599f795c691c6a3905a</t>
+          <t>9fef42dc42dede01c3ca00704497f947</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>d436cb0e1a476937a5a1957ea19a530a</t>
+          <t>9fef42dc42dede01c3ca00704497f947</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>shapefile2_3857.shp</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>fio9.sh</t>
+          <t>shapefile2_3857.shp</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2776d1a88ed80599f795c691c6a3905a</t>
+          <t>bb411366a34a8e5b9a9ba277d8ea54a2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>61183c5e98db4661b70386d3bfc25ad1</t>
+          <t>bb411366a34a8e5b9a9ba277d8ea54a2</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>shapefile2_3857.shx</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>fio19.sh</t>
+          <t>shapefile2_3857.shx</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>6d4bf5aea64372a6c595917ced42d781</t>
+          <t>3602f2dcc44a376b3f69539e3b254ff1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15f9d8fcfcd6ec32a51ab99a9e64f19e</t>
+          <t>3602f2dcc44a376b3f69539e3b254ff1</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>tif_part1.tif</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>tif_part1.tif</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>6d4bf5aea64372a6c595917ced42d781</t>
+          <t>0c9056e6848869d767f9cb52d5736dc3</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
+          <t>0c9056e6848869d767f9cb52d5736dc3</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>tif_part2.tif</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>fio15.sh</t>
+          <t>tif_part2.tif</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>6d4bf5aea64372a6c595917ced42d781</t>
+          <t>e2af7660360b8c558ed533f154a5f5ee</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0e7fefd4bf12e3b10921488a1733c871</t>
+          <t>e2af7660360b8c558ed533f154a5f5ee</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>2395561161.jpg.aux.xml</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>238999561.jpg.aux.xml</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>6d4bf5aea64372a6c595917ced42d781</t>
+          <t>c85396584b53a82deb08d382d5759e5b</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>d3184ae79e15874650c264c7fc201803</t>
+          <t>edf683c0900a7d0cd4368588f052cf23</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1613,22 +1613,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>fio11.sh</t>
+          <t>BAND5.tif</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>6d4bf5aea64372a6c595917ced42d781</t>
+          <t>9e0e74eb3ce1925e741c47692aa0b085</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>e22aa548fea442a35b145881113905b5</t>
+          <t>34d5a31a815f612191417ef65ef45f00</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1638,22 +1638,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>fio17.sh</t>
+          <t>BAND4.tif</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>6d4bf5aea64372a6c595917ced42d781</t>
+          <t>9e0e74eb3ce1925e741c47692aa0b085</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5017eef8adf42f9837bbd372d66e547d</t>
+          <t>7d81fddc0efcee49ecfba15af94d6cdd</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1663,22 +1663,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>fio14.sh</t>
+          <t>BAND3.tif</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>6d4bf5aea64372a6c595917ced42d781</t>
+          <t>9e0e74eb3ce1925e741c47692aa0b085</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>45bac4192c61cfeba14a64386a4b6e65</t>
+          <t>8446a26c170e6f39ccf88f3134c7d7b2</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1688,22 +1688,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>RA308DEC2023036332009100056PSANSTUC00GTDF.jpg.aux.xml</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>RAF21OCT2023035650009100056SSANSTUC00GTDC.jpg.aux.xml</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>6d4bf5aea64372a6c595917ced42d781</t>
+          <t>34d9fcf4dc4596eec10f1f555ba6e40b</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
+          <t>e8731420f58dbbf17cc21554f298a378</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1713,22 +1713,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>fio16.sh</t>
+          <t>BAND4.tif</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>6d4bf5aea64372a6c595917ced42d781</t>
+          <t>17c148cc827f916c8ddb24918738c39c</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>172fa5348233549194189081d49f9f6d</t>
+          <t>9dde304921e95ab4642127b7c4193af8</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1738,22 +1738,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>fio18.sh</t>
+          <t>BAND5.tif</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>6d4bf5aea64372a6c595917ced42d781</t>
+          <t>17c148cc827f916c8ddb24918738c39c</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2709ab002720bf259dfd7f79bf2a2677</t>
+          <t>9f6bff32ec6cb52c6ac99e080a3fe76c</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1763,22 +1763,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>fio13.sh</t>
+          <t>BAND3.tif</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>6d4bf5aea64372a6c595917ced42d781</t>
+          <t>17c148cc827f916c8ddb24918738c39c</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>020e043234bba88e36b5941af15254d5</t>
+          <t>25cb1e5b2bc38c1e39aaa33373c8961b</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1788,22 +1788,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>1989721471-L3-090-052-17Jan19.img</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>1989721481-L3-090-053-17Jan19.img</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>e02e5c206fafe0d5cd4ba9b596aaa243</t>
+          <t>5d74a697da372fd41cb110890554e3c9</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>d3184ae79e15874650c264c7fc201803</t>
+          <t>00b2f81f1f86c90b73dd2ca2f578a442</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1813,22 +1813,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>1989880301-L3-094-052-18May18.img</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>fio24.sh</t>
+          <t>1989880311-L3-094-053-18May18.img</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>e02e5c206fafe0d5cd4ba9b596aaa243</t>
+          <t>52028d0e8bfd17ea38c40bef9ad9929e</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>9889b12792dc5156d8b0bea1b6a9cc63</t>
+          <t>cbf252ad36ab8ab63b1181bc3fede0ab</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1838,22 +1838,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>23496092511-IRS-R2-L3-092-052-15Apr21_RAW_MS.img</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>23496092521-IRS-R2-L3-092-053-15Apr21_RAW_MS.img</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>e02e5c206fafe0d5cd4ba9b596aaa243</t>
+          <t>1e5de110ced65fb3b74a687ec6beffd1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>619f1fbf4c45c242ba377bf6323dbc3b</t>
+          <t>23ff5a536302c914d0c01d4e360edd6e</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1863,22 +1863,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>fio23.sh</t>
+          <t>BAND3.tif</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>e02e5c206fafe0d5cd4ba9b596aaa243</t>
+          <t>bf0b7811edfb0f7bedab6f782d62768f</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>de9caef7e5395d10cc8e56ee6c4e6d96</t>
+          <t>82936fc1945f2ab72fbf54c047f314e2</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1888,22 +1888,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>BAND4.tif</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>e02e5c206fafe0d5cd4ba9b596aaa243</t>
+          <t>bf0b7811edfb0f7bedab6f782d62768f</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5dd1be85dd4ab61a7dda604d81f0fc65</t>
+          <t>03eb861952ab4b15ba9b6812e10b0930</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1913,297 +1913,297 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>RAF21OCT2023035650009100056SSANSTUC00GTDC.meta</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>run19.txt</t>
+          <t>RAF27DEC2023036602009000056SSANSTUC00GTDD.meta</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>89e1fcfcec80c3f62a313d2cb2e2491d</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>3b5423c90516a11c05a8265d1fefe2a0</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>run7.txt</t>
+          <t>BAND3.tif</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>2ae1f737458f80a572fa3184eea566c2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>e6661179067e2e722afff334e8d4cd99</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>run15.txt</t>
+          <t>BAND4.tif</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>2ae1f737458f80a572fa3184eea566c2</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>f73e1fe85b22a9c221aee6f44a8163b8</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>BAND2.tif.aux.xml</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>run4.txt</t>
+          <t>BAND4.tif.aux.xml</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>0a9fe23ecb4f17ec469e74efa452e9cc</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>dd5bbae68e2908aa575f461531fc947c</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>BAND2.tif.aux.xml</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>run16.txt</t>
+          <t>BAND4.tif.aux.xml</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>0a9fe23ecb4f17ec469e74efa452e9cc</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>97848f4d99474c6252d74bce561aeb44</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>BAND2.tif.aux.xml</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>run12.txt</t>
+          <t>BAND3.tif.aux.xml</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>0a9fe23ecb4f17ec469e74efa452e9cc</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>6f4f8153fac45484eaa29d3dfe844372</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>run23.txt</t>
+          <t>BAND3.tif</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>e0e2f3fafaddd6ef59527aa0b4bb8cd7</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>5eed584c9513fa8607054c32627d6dd7</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>run6.txt</t>
+          <t>BAND4.tif</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>e0e2f3fafaddd6ef59527aa0b4bb8cd7</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>28272cc9269d2c3135b2dfd3b24d5a94</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>RAF21OCT2023035650009100057SSANSTUC00GTDA.jpg.aux.xml</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>run21.txt</t>
+          <t>RAF27DEC2023036602009000056SSANSTUC00GTDD.jpg.aux.xml</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>f9b1f77694ded78b9c50c2123a11b81c</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>9a2db8e23f67dfdb6613e4405939a9db</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>run13.txt</t>
+          <t>BAND4.tif</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>1e9b79fbe323fab4a55cc9b5d6bd5062</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>2ccdccecf9f1f8a289168ad8497b7afa</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>run22.txt</t>
+          <t>BAND3.tif</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>1e9b79fbe323fab4a55cc9b5d6bd5062</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>f61312fb8cddbd4450dd9cf2caa29868</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>India_State_Boundary.cpg</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>run18.txt</t>
+          <t>India_State_Boundary_duplicate.cpg</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>ae3b3df9970b49b6523e608759bc957d</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>ae3b3df9970b49b6523e608759bc957d</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2213,725 +2213,125 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>India_State_Boundary.dbf</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>run8.txt</t>
+          <t>India_State_Boundary_duplicate.dbf</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>7c57927243301d30fddf8d64505bf2a3</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>e3689febac6a8698568392274966afd6</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>India_State_Boundary.shp</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>run14.txt</t>
+          <t>India_State_Boundary_duplicate.shp</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>ef82569afba42befb5f00da185d3dccc</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>d0cff6c56005b047c4eb0e97b38d2cc2</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>India_State_Boundary.shx</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>run9.txt</t>
+          <t>India_State_Boundary_duplicate.shx</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>0d8b3224249440d0bca682aef7fadcd8</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>ebacd446446421ca753655c9c042ffb3</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>lulc_sample.img.aux.xml</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>run17.txt</t>
+          <t>lulc_sample1.img.aux.xml</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>22cd90e69a6d3d7b5c9e25142d1e94e0</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>470ddc66809d1b80e7f9bca2adb4ca9b</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>lulc_sample.img.aux.xml</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>run24.txt</t>
+          <t>lulc_sample1.img.aux.xml</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>22cd90e69a6d3d7b5c9e25142d1e94e0</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
+          <t>470ddc66809d1b80e7f9bca2adb4ca9b</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>run5.txt</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>run11.txt</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>run3.txt</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>run10.txt</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>run2.txt</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>run20.txt</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>d41d8cd98f00b204e9800998ecf8427e</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>device.ios1</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>device.ios3</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>18a0b6a2aad8a0d44d4ee897088cca30</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>bf6d291ed6e2c0330b061c3ce2422e24</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>device.ios1</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>device.ios2</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>18a0b6a2aad8a0d44d4ee897088cca30</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>51b08f41de06d5bd0ff0259c5f0efc3f</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>device.ios1</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>device.ios4</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>18a0b6a2aad8a0d44d4ee897088cca30</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>ad62b8f76d3623bf276e3206c5ce6424</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>xdd-7k-BS4-QD8-TG1-512_flash-log01</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>xdd-7k-BS512K-QD16-TG1-512_flash-log09-k</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>ff3851dbcb2e9f60228aa56d9ae3abc3</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>6de42df7edb0d1b0da3bb4d9c470867e</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>devlist.c0-vm1</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>devlist.c1-vm1</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>3d496600a326338190992503fa689462</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>e03bc5e27acc243959519d7c7c0c9733</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>devlist.vm1</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>devlist.vm3</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>3178b2afd0cdd304f4b4485cfed1cf06</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>9ff94ca16bef5d10af14817623770d77</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>devlist.vm3_4kall</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>devlist.vm4_4kall</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>4fdde708a5376fc76f2391c330a9310c</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>c17a73aa1a4d93f49861b304eedbecae</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>devlist.vm3_4kall</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>devlist.vm4_4kall.bkp</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>4fdde708a5376fc76f2391c330a9310c</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>c17a73aa1a4d93f49861b304eedbecae</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>devlist.vm3_4kall</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>devlist.vm3_4kall.bkp</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>4fdde708a5376fc76f2391c330a9310c</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>4fdde708a5376fc76f2391c330a9310c</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>devlist.vm3_4kallnew</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>devlist.vm4_4kallnew</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>330cc3f1f3e735687fd59963f88ae60c</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>ccdf432168e0247229e9a184c8ab1da9</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>xdd-7ke-BS4-QD16-TG0-512.log</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>xdd-7ke-BS8-QD16-TG0-512.log</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>9fbb7dc2ac9bda205eef009490e01cb7</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>652d7e7a55fd68c0431a2c88a8d4b1d6</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>3.207-CVE_to_be_installed.txt</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>3.208-CVE_to_be_installed.txt</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>1947d204beda6f330f4049440e848fcb</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>1947d204beda6f330f4049440e848fcb</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>KKD geo tagging (1).xlsx</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>KKD geo tagging.xlsx</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>66c2e9c8ad2fdbda9413f40d1300c29b</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>66c2e9c8ad2fdbda9413f40d1300c29b</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>KKD geo tagging (1).xlsx</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>KKD geo tagging (2).xlsx</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>66c2e9c8ad2fdbda9413f40d1300c29b</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>66c2e9c8ad2fdbda9413f40d1300c29b</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>KKD geo tagging (1).xlsx</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>KKD geo tagging (3).xlsx</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>66c2e9c8ad2fdbda9413f40d1300c29b</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>66c2e9c8ad2fdbda9413f40d1300c29b</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>LS____.pdf</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>LS____ (2).pdf</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>203cb463f8278461e8ae7cbe054fcf74</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>dfa219b9bbb5df3fb8174665ff7c50ae</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>LS____.pdf</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>LS____ (1).pdf</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>203cb463f8278461e8ae7cbe054fcf74</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>dce5816ff3c5d827355d0edc6e5d9c80</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>235434221_RAW_PAN.pix</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>235434241_RAW_PAN.pix</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>523048b8cfd0a5835850a5898600679c</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>72577f31f59ec432953f35b8ee14ee04</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
         <v>0</v>
       </c>
     </row>
